--- a/Code/Results/Cases/Case_6_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9969704724603839</v>
+        <v>1.008097120644825</v>
       </c>
       <c r="D2">
-        <v>1.016269671544334</v>
+        <v>1.025310378992229</v>
       </c>
       <c r="E2">
-        <v>1.003226112256697</v>
+        <v>1.013402586713875</v>
       </c>
       <c r="F2">
-        <v>1.004820043924462</v>
+        <v>1.014259286963825</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044030610488215</v>
+        <v>1.048416809436501</v>
       </c>
       <c r="J2">
-        <v>1.019242175298158</v>
+        <v>1.030038316291371</v>
       </c>
       <c r="K2">
-        <v>1.027506903421816</v>
+        <v>1.036428011560658</v>
       </c>
       <c r="L2">
-        <v>1.014640684443752</v>
+        <v>1.024678307369907</v>
       </c>
       <c r="M2">
-        <v>1.016212633848095</v>
+        <v>1.025523478317627</v>
       </c>
       <c r="N2">
-        <v>1.020689616095793</v>
+        <v>1.031501088847559</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003898027527925</v>
+        <v>1.012456004013669</v>
       </c>
       <c r="D3">
-        <v>1.021642584503877</v>
+        <v>1.028626596664103</v>
       </c>
       <c r="E3">
-        <v>1.008985470343968</v>
+        <v>1.016879803279528</v>
       </c>
       <c r="F3">
-        <v>1.012246241149397</v>
+        <v>1.019513331842241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046665437126087</v>
+        <v>1.050044995175561</v>
       </c>
       <c r="J3">
-        <v>1.024282989507569</v>
+        <v>1.032612770770209</v>
       </c>
       <c r="K3">
-        <v>1.032005835493499</v>
+        <v>1.038905842296108</v>
       </c>
       <c r="L3">
-        <v>1.019504657010098</v>
+        <v>1.027301165112958</v>
       </c>
       <c r="M3">
-        <v>1.022724790705476</v>
+        <v>1.029902478499864</v>
       </c>
       <c r="N3">
-        <v>1.025737588839571</v>
+        <v>1.034079199347044</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008248882038934</v>
+        <v>1.015218329178534</v>
       </c>
       <c r="D4">
-        <v>1.025018815372821</v>
+        <v>1.030730006529749</v>
       </c>
       <c r="E4">
-        <v>1.012608119867246</v>
+        <v>1.019089070071415</v>
       </c>
       <c r="F4">
-        <v>1.016913933850813</v>
+        <v>1.022844236217163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048305945476811</v>
+        <v>1.051066231001401</v>
       </c>
       <c r="J4">
-        <v>1.027443908642552</v>
+        <v>1.034240600175709</v>
       </c>
       <c r="K4">
-        <v>1.034824378865198</v>
+        <v>1.040471171823164</v>
       </c>
       <c r="L4">
-        <v>1.022556720800464</v>
+        <v>1.028962439120539</v>
       </c>
       <c r="M4">
-        <v>1.026812420108413</v>
+        <v>1.032674552998103</v>
       </c>
       <c r="N4">
-        <v>1.028902996842288</v>
+        <v>1.035709340457013</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010048137477276</v>
+        <v>1.016366174279512</v>
       </c>
       <c r="D5">
-        <v>1.026415353903979</v>
+        <v>1.03160444826279</v>
       </c>
       <c r="E5">
-        <v>1.014107463963678</v>
+        <v>1.020008421988858</v>
       </c>
       <c r="F5">
-        <v>1.01884511306641</v>
+        <v>1.024228710822691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04898087689135</v>
+        <v>1.051488019525377</v>
       </c>
       <c r="J5">
-        <v>1.028749830982886</v>
+        <v>1.03491611657186</v>
       </c>
       <c r="K5">
-        <v>1.035988210647709</v>
+        <v>1.041120406418007</v>
       </c>
       <c r="L5">
-        <v>1.023818147199559</v>
+        <v>1.029652513973548</v>
       </c>
       <c r="M5">
-        <v>1.028502257600669</v>
+        <v>1.033825756481281</v>
       </c>
       <c r="N5">
-        <v>1.030210773742137</v>
+        <v>1.03638581616393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010348537047241</v>
+        <v>1.016558128341218</v>
       </c>
       <c r="D6">
-        <v>1.026648533510851</v>
+        <v>1.031750703348989</v>
       </c>
       <c r="E6">
-        <v>1.014357861083857</v>
+        <v>1.020162241780354</v>
       </c>
       <c r="F6">
-        <v>1.019167591675323</v>
+        <v>1.024460259363437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049093355323795</v>
+        <v>1.051558403089298</v>
       </c>
       <c r="J6">
-        <v>1.028967789949088</v>
+        <v>1.035029029170931</v>
       </c>
       <c r="K6">
-        <v>1.036182416467863</v>
+        <v>1.041228905443309</v>
       </c>
       <c r="L6">
-        <v>1.024028707541027</v>
+        <v>1.029767899939857</v>
       </c>
       <c r="M6">
-        <v>1.028784355738483</v>
+        <v>1.034018232185161</v>
       </c>
       <c r="N6">
-        <v>1.030429042235071</v>
+        <v>1.036498889111843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008273038905042</v>
+        <v>1.015233718908038</v>
       </c>
       <c r="D7">
-        <v>1.025037564164473</v>
+        <v>1.030741729082272</v>
       </c>
       <c r="E7">
-        <v>1.012628245347973</v>
+        <v>1.019101391105607</v>
       </c>
       <c r="F7">
-        <v>1.016939858351247</v>
+        <v>1.022862797047031</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048315020996497</v>
+        <v>1.051071896330999</v>
       </c>
       <c r="J7">
-        <v>1.027461447004382</v>
+        <v>1.034249660769574</v>
       </c>
       <c r="K7">
-        <v>1.034840011527084</v>
+        <v>1.040479881280816</v>
       </c>
       <c r="L7">
-        <v>1.02257365971219</v>
+        <v>1.028971692300115</v>
       </c>
       <c r="M7">
-        <v>1.02683511016125</v>
+        <v>1.032689990457952</v>
       </c>
       <c r="N7">
-        <v>1.028920560110604</v>
+        <v>1.035718413917961</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9993400140948447</v>
+        <v>1.009582570788048</v>
       </c>
       <c r="D8">
-        <v>1.018107020261947</v>
+        <v>1.026440088235299</v>
       </c>
       <c r="E8">
-        <v>1.005194866411816</v>
+        <v>1.014586361954577</v>
       </c>
       <c r="F8">
-        <v>1.007359382578251</v>
+        <v>1.016049558602179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044934823977668</v>
+        <v>1.048973873493719</v>
       </c>
       <c r="J8">
-        <v>1.020967378476665</v>
+        <v>1.030916408230224</v>
       </c>
       <c r="K8">
-        <v>1.029047181570882</v>
+        <v>1.037273436948596</v>
       </c>
       <c r="L8">
-        <v>1.016304926750523</v>
+        <v>1.025572311136169</v>
       </c>
       <c r="M8">
-        <v>1.018440580665583</v>
+        <v>1.027016429948763</v>
       </c>
       <c r="N8">
-        <v>1.022417269260697</v>
+        <v>1.032380427777676</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9825057533489013</v>
+        <v>0.9991558065879361</v>
       </c>
       <c r="D9">
-        <v>1.005065678148916</v>
+        <v>1.018520059080627</v>
       </c>
       <c r="E9">
-        <v>0.9912355551901462</v>
+        <v>1.006302919148439</v>
       </c>
       <c r="F9">
-        <v>0.9893337733992736</v>
+        <v>1.003486309888848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038451527893189</v>
+        <v>1.045020093155855</v>
       </c>
       <c r="J9">
-        <v>1.008691771989572</v>
+        <v>1.024738410760373</v>
       </c>
       <c r="K9">
-        <v>1.018077099451443</v>
+        <v>1.031319641091443</v>
       </c>
       <c r="L9">
-        <v>1.004472448144357</v>
+        <v>1.019294556943226</v>
       </c>
       <c r="M9">
-        <v>1.00260230610309</v>
+        <v>1.016523076255621</v>
       </c>
       <c r="N9">
-        <v>1.010124230004361</v>
+        <v>1.026193656842791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9704156653238758</v>
+        <v>0.9918548091733289</v>
       </c>
       <c r="D10">
-        <v>0.9957203738113058</v>
+        <v>1.012988797550862</v>
       </c>
       <c r="E10">
-        <v>0.9812504718050847</v>
+        <v>1.000537484409498</v>
       </c>
       <c r="F10">
-        <v>0.9764061007240195</v>
+        <v>0.9946904727047708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033722115193199</v>
+        <v>1.042197625556836</v>
       </c>
       <c r="J10">
-        <v>0.999854296443932</v>
+        <v>1.0203953607842</v>
       </c>
       <c r="K10">
-        <v>1.010167330552003</v>
+        <v>1.027127429645853</v>
       </c>
       <c r="L10">
-        <v>0.9959667126582372</v>
+        <v>1.014897041185792</v>
       </c>
       <c r="M10">
-        <v>0.9912148302806224</v>
+        <v>1.009156258639924</v>
       </c>
       <c r="N10">
-        <v>1.001274204229773</v>
+        <v>1.021844439237497</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9649402061414498</v>
+        <v>0.9886019983341656</v>
       </c>
       <c r="D11">
-        <v>0.9914948760427399</v>
+        <v>1.010528621198693</v>
       </c>
       <c r="E11">
-        <v>0.9767396945400565</v>
+        <v>0.9979777455846496</v>
       </c>
       <c r="F11">
-        <v>0.9705551545435632</v>
+        <v>0.9907709565226068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03156382659572</v>
+        <v>1.040927807892072</v>
       </c>
       <c r="J11">
-        <v>0.9958479175706224</v>
+        <v>1.018456757067571</v>
       </c>
       <c r="K11">
-        <v>1.006578988920807</v>
+        <v>1.025254677542773</v>
       </c>
       <c r="L11">
-        <v>0.9921140142384727</v>
+        <v>1.012937899693776</v>
       </c>
       <c r="M11">
-        <v>0.9860545728335145</v>
+        <v>1.005869043368422</v>
       </c>
       <c r="N11">
-        <v>0.9972621358389253</v>
+        <v>1.019903082481229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.962866851918655</v>
+        <v>0.9873792453048326</v>
       </c>
       <c r="D12">
-        <v>0.9898960557602472</v>
+        <v>1.009604515634648</v>
       </c>
       <c r="E12">
-        <v>0.9750335064653949</v>
+        <v>0.9970169265097993</v>
       </c>
       <c r="F12">
-        <v>0.9683401503998921</v>
+        <v>0.9892973865434267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030744194041276</v>
+        <v>1.040448665312006</v>
       </c>
       <c r="J12">
-        <v>0.9943303534977188</v>
+        <v>1.017727511818656</v>
       </c>
       <c r="K12">
-        <v>1.005219425724412</v>
+        <v>1.024549992909185</v>
       </c>
       <c r="L12">
-        <v>0.990655182681186</v>
+        <v>1.012201501525712</v>
       </c>
       <c r="M12">
-        <v>0.9841001220776958</v>
+        <v>1.004632544912856</v>
       </c>
       <c r="N12">
-        <v>0.9957424166509711</v>
+        <v>1.019172801620416</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9633134417164381</v>
+        <v>0.9876421998949936</v>
       </c>
       <c r="D13">
-        <v>0.9902403751636017</v>
+        <v>1.009803213411836</v>
       </c>
       <c r="E13">
-        <v>0.9754009229251976</v>
+        <v>0.9972234874353874</v>
       </c>
       <c r="F13">
-        <v>0.9688172275922748</v>
+        <v>0.9896142901265242</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030920843928605</v>
+        <v>1.040551786606367</v>
       </c>
       <c r="J13">
-        <v>0.9946572495943785</v>
+        <v>1.017884359435956</v>
       </c>
       <c r="K13">
-        <v>1.005512302148024</v>
+        <v>1.024701567315711</v>
       </c>
       <c r="L13">
-        <v>0.9909694033627778</v>
+        <v>1.012359861632937</v>
       </c>
       <c r="M13">
-        <v>0.9845211210970038</v>
+        <v>1.004898493025771</v>
       </c>
       <c r="N13">
-        <v>0.9960697769775836</v>
+        <v>1.019329871979323</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9647696496562368</v>
+        <v>0.9885012259720068</v>
       </c>
       <c r="D14">
-        <v>0.9913633293944909</v>
+        <v>1.01045244723554</v>
       </c>
       <c r="E14">
-        <v>0.9765993024589625</v>
+        <v>0.9978985314394196</v>
       </c>
       <c r="F14">
-        <v>0.9703729352466653</v>
+        <v>0.990649517827764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031496450128217</v>
+        <v>1.040888356215558</v>
       </c>
       <c r="J14">
-        <v>0.9957230904493692</v>
+        <v>1.01839666699192</v>
       </c>
       <c r="K14">
-        <v>1.00646716496331</v>
+        <v>1.025196615488188</v>
       </c>
       <c r="L14">
-        <v>0.9919940074450169</v>
+        <v>1.012877208540711</v>
       </c>
       <c r="M14">
-        <v>0.9858938066520389</v>
+        <v>1.005767155001044</v>
       </c>
       <c r="N14">
-        <v>0.9971371314488423</v>
+        <v>1.019842907070779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.965661520347241</v>
+        <v>0.9890285527869598</v>
       </c>
       <c r="D15">
-        <v>0.9920512613113783</v>
+        <v>1.010851082835488</v>
       </c>
       <c r="E15">
-        <v>0.9773335153529648</v>
+        <v>0.9983131048851873</v>
       </c>
       <c r="F15">
-        <v>0.9713258142681619</v>
+        <v>0.9912849798620943</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031848678205862</v>
+        <v>1.04109472747704</v>
       </c>
       <c r="J15">
-        <v>0.9963758145029608</v>
+        <v>1.018711088819501</v>
       </c>
       <c r="K15">
-        <v>1.007051881300683</v>
+        <v>1.025500417156746</v>
       </c>
       <c r="L15">
-        <v>0.9926215471925812</v>
+        <v>1.013194798885331</v>
       </c>
       <c r="M15">
-        <v>0.9867344637096075</v>
+        <v>1.006300288282806</v>
       </c>
       <c r="N15">
-        <v>0.9977907824454585</v>
+        <v>1.020157775413419</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9707737078927818</v>
+        <v>0.9920686960581404</v>
       </c>
       <c r="D16">
-        <v>0.9959968384006039</v>
+        <v>1.013150657354863</v>
       </c>
       <c r="E16">
-        <v>0.9815456822017037</v>
+        <v>1.000705989903655</v>
       </c>
       <c r="F16">
-        <v>0.9767887725140061</v>
+        <v>0.9949481761113577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033862915179396</v>
+        <v>1.042280868538641</v>
       </c>
       <c r="J16">
-        <v>1.000116201106471</v>
+        <v>1.020522759760107</v>
       </c>
       <c r="K16">
-        <v>1.010401857782642</v>
+        <v>1.02725047123344</v>
       </c>
       <c r="L16">
-        <v>0.9962186410881438</v>
+        <v>1.015025868872097</v>
       </c>
       <c r="M16">
-        <v>0.9915521995293893</v>
+        <v>1.009372297887326</v>
       </c>
       <c r="N16">
-        <v>1.001536480826974</v>
+        <v>1.021972019134563</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.973913819984938</v>
+        <v>0.993950687319061</v>
       </c>
       <c r="D17">
-        <v>0.9984222901266261</v>
+        <v>1.01457534376862</v>
       </c>
       <c r="E17">
-        <v>0.9841360411527031</v>
+        <v>1.002189693944733</v>
       </c>
       <c r="F17">
-        <v>0.9801453174274862</v>
+        <v>0.99721561792461</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03509592352471</v>
+        <v>1.043011926224947</v>
       </c>
       <c r="J17">
-        <v>1.002412723892125</v>
+        <v>1.021643333077574</v>
       </c>
       <c r="K17">
-        <v>1.012458038977609</v>
+        <v>1.02833255121932</v>
       </c>
       <c r="L17">
-        <v>0.9984280604817485</v>
+        <v>1.016159438516184</v>
       </c>
       <c r="M17">
-        <v>0.994510663447991</v>
+        <v>1.011272644213381</v>
       </c>
       <c r="N17">
-        <v>1.003836264938399</v>
+        <v>1.023094183794673</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9757224544060638</v>
+        <v>0.995039654668012</v>
       </c>
       <c r="D18">
-        <v>0.9998199293735366</v>
+        <v>1.015400093660319</v>
       </c>
       <c r="E18">
-        <v>0.9856290839251737</v>
+        <v>1.003049045489234</v>
       </c>
       <c r="F18">
-        <v>0.9820789766620958</v>
+        <v>0.9985275556584604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035804562742247</v>
+        <v>1.043433762652169</v>
       </c>
       <c r="J18">
-        <v>1.003735087835489</v>
+        <v>1.022291376580885</v>
       </c>
       <c r="K18">
-        <v>1.013641771795085</v>
+        <v>1.028958192672917</v>
       </c>
       <c r="L18">
-        <v>0.999700576205843</v>
+        <v>1.016815355173563</v>
       </c>
       <c r="M18">
-        <v>0.9962143906637496</v>
+        <v>1.012371753905519</v>
       </c>
       <c r="N18">
-        <v>1.005160506790239</v>
+        <v>1.02374314759409</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9763353575749174</v>
+        <v>0.9954095001807552</v>
       </c>
       <c r="D19">
-        <v>1.000293658290454</v>
+        <v>1.01568026747271</v>
       </c>
       <c r="E19">
-        <v>0.986135214594436</v>
+        <v>1.003341047927637</v>
       </c>
       <c r="F19">
-        <v>0.9827343107734602</v>
+        <v>0.998973120775154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036044438808808</v>
+        <v>1.043576830768679</v>
       </c>
       <c r="J19">
-        <v>1.00418313785839</v>
+        <v>1.022511411168166</v>
       </c>
       <c r="K19">
-        <v>1.014042808510363</v>
+        <v>1.029170596727528</v>
       </c>
       <c r="L19">
-        <v>1.000131787742013</v>
+        <v>1.017038123413697</v>
       </c>
       <c r="M19">
-        <v>0.9967916954514123</v>
+        <v>1.012744964320406</v>
       </c>
       <c r="N19">
-        <v>1.005609193095565</v>
+        <v>1.023963494655723</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9735793117044015</v>
+        <v>0.9937496796506486</v>
       </c>
       <c r="D20">
-        <v>0.9981638457576933</v>
+        <v>1.014423137950349</v>
       </c>
       <c r="E20">
-        <v>0.9838599860083992</v>
+        <v>1.002031137769129</v>
       </c>
       <c r="F20">
-        <v>0.9797877155241386</v>
+        <v>0.9969734488380541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034964734284732</v>
+        <v>1.042933966285975</v>
       </c>
       <c r="J20">
-        <v>1.00216812006605</v>
+        <v>1.021523685182055</v>
       </c>
       <c r="K20">
-        <v>1.012239058746256</v>
+        <v>1.028217027937768</v>
       </c>
       <c r="L20">
-        <v>0.9981927020058033</v>
+        <v>1.016038365845789</v>
       </c>
       <c r="M20">
-        <v>0.9941955349938614</v>
+        <v>1.011069726086839</v>
       </c>
       <c r="N20">
-        <v>1.003591313746834</v>
+        <v>1.022974365985418</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9643419534434885</v>
+        <v>0.9882486713995888</v>
       </c>
       <c r="D21">
-        <v>0.9910334765314125</v>
+        <v>1.010261552253834</v>
       </c>
       <c r="E21">
-        <v>0.9762472788468302</v>
+        <v>0.9977000286541844</v>
       </c>
       <c r="F21">
-        <v>0.9699160011747924</v>
+        <v>0.9903451660090652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031327455693621</v>
+        <v>1.040789453857238</v>
       </c>
       <c r="J21">
-        <v>0.9954100599312805</v>
+        <v>1.018246061803227</v>
       </c>
       <c r="K21">
-        <v>1.006186737194793</v>
+        <v>1.025051089820876</v>
       </c>
       <c r="L21">
-        <v>0.9916930733829259</v>
+        <v>1.012725106102905</v>
       </c>
       <c r="M21">
-        <v>0.9854906538398227</v>
+        <v>1.005511790244111</v>
       </c>
       <c r="N21">
-        <v>0.9968236563915126</v>
+        <v>1.019692088005443</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9583033472513575</v>
+        <v>0.9847055666189947</v>
       </c>
       <c r="D22">
-        <v>0.9863794865088814</v>
+        <v>1.007585206508691</v>
       </c>
       <c r="E22">
-        <v>0.9712818138022169</v>
+        <v>0.9949186459330035</v>
       </c>
       <c r="F22">
-        <v>0.96346579837139</v>
+        <v>0.9860747986966277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028935905090887</v>
+        <v>1.039397688865952</v>
       </c>
       <c r="J22">
-        <v>0.990989365170252</v>
+        <v>1.016132041150776</v>
       </c>
       <c r="K22">
-        <v>1.00222568501691</v>
+        <v>1.023007881864319</v>
       </c>
       <c r="L22">
-        <v>0.9874444889552704</v>
+        <v>1.0105914420247</v>
       </c>
       <c r="M22">
-        <v>0.979797491146607</v>
+        <v>1.001927257642338</v>
       </c>
       <c r="N22">
-        <v>0.9923966837368625</v>
+        <v>1.017575065201185</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9615276565937301</v>
+        <v>0.9865921087412401</v>
       </c>
       <c r="D23">
-        <v>0.9888637343683347</v>
+        <v>1.009009833879633</v>
       </c>
       <c r="E23">
-        <v>0.9739320187585018</v>
+        <v>0.9963988111104733</v>
       </c>
       <c r="F23">
-        <v>0.9669096063805651</v>
+        <v>0.9883487209143224</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030214132080719</v>
+        <v>1.040139716876316</v>
       </c>
       <c r="J23">
-        <v>0.9933500212174069</v>
+        <v>1.017257927162324</v>
       </c>
       <c r="K23">
-        <v>1.004341067438295</v>
+        <v>1.024096165663479</v>
       </c>
       <c r="L23">
-        <v>0.9897129413190039</v>
+        <v>1.011727473059724</v>
       </c>
       <c r="M23">
-        <v>0.9828375998284926</v>
+        <v>1.003836324321072</v>
       </c>
       <c r="N23">
-        <v>0.9947606921863754</v>
+        <v>1.01870255010001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9737305322358568</v>
+        <v>0.9938405333974583</v>
       </c>
       <c r="D24">
-        <v>0.9982806782656012</v>
+        <v>1.014491932472097</v>
       </c>
       <c r="E24">
-        <v>0.9839847784786315</v>
+        <v>1.002102801194477</v>
       </c>
       <c r="F24">
-        <v>0.9799493748112734</v>
+        <v>0.9970829073760095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035024045568612</v>
+        <v>1.04296920714844</v>
       </c>
       <c r="J24">
-        <v>1.002278698853237</v>
+        <v>1.021577766090243</v>
       </c>
       <c r="K24">
-        <v>1.012338054545193</v>
+        <v>1.028269244955953</v>
       </c>
       <c r="L24">
-        <v>0.9982991002680933</v>
+        <v>1.01609308964554</v>
       </c>
       <c r="M24">
-        <v>0.9943379953993337</v>
+        <v>1.01116144482395</v>
       </c>
       <c r="N24">
-        <v>1.003702049568582</v>
+        <v>1.023028523694698</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9870000661199312</v>
+        <v>1.001910349417436</v>
       </c>
       <c r="D25">
-        <v>1.008544427849523</v>
+        <v>1.020610108973459</v>
       </c>
       <c r="E25">
-        <v>0.9949560140898812</v>
+        <v>1.008485464201533</v>
       </c>
       <c r="F25">
-        <v>0.9941429559915452</v>
+        <v>1.006804764612435</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040195151999732</v>
+        <v>1.046074051136106</v>
       </c>
       <c r="J25">
-        <v>1.011972992431477</v>
+        <v>1.026373593277513</v>
       </c>
       <c r="K25">
-        <v>1.0210115349597</v>
+        <v>1.032896687782741</v>
       </c>
       <c r="L25">
-        <v>1.007633139361985</v>
+        <v>1.020953467051186</v>
       </c>
       <c r="M25">
-        <v>1.006832880607103</v>
+        <v>1.019298355871343</v>
       </c>
       <c r="N25">
-        <v>1.013410110155655</v>
+        <v>1.027831161506664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008097120644825</v>
+        <v>1.005251366810836</v>
       </c>
       <c r="D2">
-        <v>1.025310378992229</v>
+        <v>1.024405644771426</v>
       </c>
       <c r="E2">
-        <v>1.013402586713875</v>
+        <v>1.011016125911841</v>
       </c>
       <c r="F2">
-        <v>1.014259286963825</v>
+        <v>1.011901937252233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048416809436501</v>
+        <v>1.047311328072712</v>
       </c>
       <c r="J2">
-        <v>1.030038316291371</v>
+        <v>1.027276136902973</v>
       </c>
       <c r="K2">
-        <v>1.036428011560658</v>
+        <v>1.035535126909817</v>
       </c>
       <c r="L2">
-        <v>1.024678307369907</v>
+        <v>1.022324092678257</v>
       </c>
       <c r="M2">
-        <v>1.025523478317627</v>
+        <v>1.023197912518623</v>
       </c>
       <c r="N2">
-        <v>1.031501088847559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013034626845649</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036196662639255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012456004013669</v>
+        <v>1.008751677942359</v>
       </c>
       <c r="D3">
-        <v>1.028626596664103</v>
+        <v>1.026740889847996</v>
       </c>
       <c r="E3">
-        <v>1.016879803279528</v>
+        <v>1.013741419535609</v>
       </c>
       <c r="F3">
-        <v>1.019513331842241</v>
+        <v>1.016361137323687</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050044995175561</v>
+        <v>1.04834190930471</v>
       </c>
       <c r="J3">
-        <v>1.032612770770209</v>
+        <v>1.029006573676781</v>
       </c>
       <c r="K3">
-        <v>1.038905842296108</v>
+        <v>1.037042677492878</v>
       </c>
       <c r="L3">
-        <v>1.027301165112958</v>
+        <v>1.024201444382834</v>
       </c>
       <c r="M3">
-        <v>1.029902478499864</v>
+        <v>1.026788868322815</v>
       </c>
       <c r="N3">
-        <v>1.034079199347044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013613338557613</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037259964987195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015218329178534</v>
+        <v>1.010977645829363</v>
       </c>
       <c r="D4">
-        <v>1.030730006529749</v>
+        <v>1.028229461198694</v>
       </c>
       <c r="E4">
-        <v>1.019089070071415</v>
+        <v>1.015480220428127</v>
       </c>
       <c r="F4">
-        <v>1.022844236217163</v>
+        <v>1.019196828788799</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051066231001401</v>
+        <v>1.048988018781562</v>
       </c>
       <c r="J4">
-        <v>1.034240600175709</v>
+        <v>1.030104650604752</v>
       </c>
       <c r="K4">
-        <v>1.040471171823164</v>
+        <v>1.037998713659215</v>
       </c>
       <c r="L4">
-        <v>1.028962439120539</v>
+        <v>1.025395335102011</v>
       </c>
       <c r="M4">
-        <v>1.032674552998103</v>
+        <v>1.029068956944987</v>
       </c>
       <c r="N4">
-        <v>1.035709340457013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013980629241946</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037936866627838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016366174279512</v>
+        <v>1.011907004315676</v>
       </c>
       <c r="D5">
-        <v>1.03160444826279</v>
+        <v>1.028853833226267</v>
       </c>
       <c r="E5">
-        <v>1.020008421988858</v>
+        <v>1.016207836770894</v>
       </c>
       <c r="F5">
-        <v>1.024228710822691</v>
+        <v>1.020379916934744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051488019525377</v>
+        <v>1.049256862175947</v>
       </c>
       <c r="J5">
-        <v>1.03491611657186</v>
+        <v>1.03056378589008</v>
       </c>
       <c r="K5">
-        <v>1.041120406418007</v>
+        <v>1.038399864166673</v>
       </c>
       <c r="L5">
-        <v>1.029652513973548</v>
+        <v>1.025894708429924</v>
       </c>
       <c r="M5">
-        <v>1.033825756481281</v>
+        <v>1.030019848393166</v>
       </c>
       <c r="N5">
-        <v>1.03638581616393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014134484604817</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038227702846373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016558128341218</v>
+        <v>1.012065711538641</v>
       </c>
       <c r="D6">
-        <v>1.031750703348989</v>
+        <v>1.028963016384539</v>
       </c>
       <c r="E6">
-        <v>1.020162241780354</v>
+        <v>1.016332550031044</v>
       </c>
       <c r="F6">
-        <v>1.024460259363437</v>
+        <v>1.020580897321744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051558403089298</v>
+        <v>1.049304270819189</v>
       </c>
       <c r="J6">
-        <v>1.035029029170931</v>
+        <v>1.030643695278739</v>
       </c>
       <c r="K6">
-        <v>1.041228905443309</v>
+        <v>1.038471556983702</v>
       </c>
       <c r="L6">
-        <v>1.029767899939857</v>
+        <v>1.025981116059773</v>
       </c>
       <c r="M6">
-        <v>1.034018232185161</v>
+        <v>1.030181888889609</v>
       </c>
       <c r="N6">
-        <v>1.036498889111843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014161588910248</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03828716099107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015233718908038</v>
+        <v>1.010998650956067</v>
       </c>
       <c r="D7">
-        <v>1.030741729082272</v>
+        <v>1.02825027775863</v>
       </c>
       <c r="E7">
-        <v>1.019101391105607</v>
+        <v>1.01549768378915</v>
       </c>
       <c r="F7">
-        <v>1.022862797047031</v>
+        <v>1.019220720721914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051071896330999</v>
+        <v>1.04899846136971</v>
       </c>
       <c r="J7">
-        <v>1.034249660769574</v>
+        <v>1.030119144697565</v>
       </c>
       <c r="K7">
-        <v>1.040479881280816</v>
+        <v>1.038016404554832</v>
       </c>
       <c r="L7">
-        <v>1.028971692300115</v>
+        <v>1.025409655668749</v>
       </c>
       <c r="M7">
-        <v>1.032689990457952</v>
+        <v>1.029089648298878</v>
       </c>
       <c r="N7">
-        <v>1.035718413917961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013986372099004</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037969536301439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009582570788048</v>
+        <v>1.006453142853491</v>
       </c>
       <c r="D8">
-        <v>1.026440088235299</v>
+        <v>1.025214897693589</v>
       </c>
       <c r="E8">
-        <v>1.014586361954577</v>
+        <v>1.011951934009045</v>
       </c>
       <c r="F8">
-        <v>1.016049558602179</v>
+        <v>1.01342942411186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048973873493719</v>
+        <v>1.047672357891675</v>
       </c>
       <c r="J8">
-        <v>1.030916408230224</v>
+        <v>1.027875794947415</v>
       </c>
       <c r="K8">
-        <v>1.037273436948596</v>
+        <v>1.03606381480315</v>
       </c>
       <c r="L8">
-        <v>1.025572311136169</v>
+        <v>1.02297240643094</v>
       </c>
       <c r="M8">
-        <v>1.027016429948763</v>
+        <v>1.024430506853623</v>
       </c>
       <c r="N8">
-        <v>1.032380427777676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013236311529716</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036593465100271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9991558065879361</v>
+        <v>0.9981186175950447</v>
       </c>
       <c r="D9">
-        <v>1.018520059080627</v>
+        <v>1.019667940040659</v>
       </c>
       <c r="E9">
-        <v>1.006302919148439</v>
+        <v>1.005495226463418</v>
       </c>
       <c r="F9">
-        <v>1.003486309888848</v>
+        <v>1.002812098755407</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045020093155855</v>
+        <v>1.045161846597718</v>
       </c>
       <c r="J9">
-        <v>1.024738410760373</v>
+        <v>1.023737987698786</v>
       </c>
       <c r="K9">
-        <v>1.031319641091443</v>
+        <v>1.032449779167933</v>
       </c>
       <c r="L9">
-        <v>1.019294556943226</v>
+        <v>1.018499772206229</v>
       </c>
       <c r="M9">
-        <v>1.016523076255621</v>
+        <v>1.015859715788439</v>
       </c>
       <c r="N9">
-        <v>1.026193656842791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011851878180677</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034034901095554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9918548091733289</v>
+        <v>0.992337059505946</v>
       </c>
       <c r="D10">
-        <v>1.012988797550862</v>
+        <v>1.01584424252758</v>
       </c>
       <c r="E10">
-        <v>1.000537484409498</v>
+        <v>1.001050078665163</v>
       </c>
       <c r="F10">
-        <v>0.9946904727047708</v>
+        <v>0.9954398960181178</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042197625556836</v>
+        <v>1.043374552169262</v>
       </c>
       <c r="J10">
-        <v>1.0203953607842</v>
+        <v>1.020858042274176</v>
       </c>
       <c r="K10">
-        <v>1.027127429645853</v>
+        <v>1.029933198096361</v>
       </c>
       <c r="L10">
-        <v>1.014897041185792</v>
+        <v>1.015400399465313</v>
       </c>
       <c r="M10">
-        <v>1.009156258639924</v>
+        <v>1.009891975575738</v>
       </c>
       <c r="N10">
-        <v>1.021844439237497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010889159349952</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032272385572256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9886019983341656</v>
+        <v>0.9897856074218505</v>
       </c>
       <c r="D11">
-        <v>1.010528621198693</v>
+        <v>1.014170308808779</v>
       </c>
       <c r="E11">
-        <v>0.9979777455846496</v>
+        <v>0.9990982650241244</v>
       </c>
       <c r="F11">
-        <v>0.9907709565226068</v>
+        <v>0.9921804788354865</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040927807892072</v>
+        <v>1.042579784180441</v>
       </c>
       <c r="J11">
-        <v>1.018456757067571</v>
+        <v>1.019589578580672</v>
       </c>
       <c r="K11">
-        <v>1.025254677542773</v>
+        <v>1.028829851735876</v>
       </c>
       <c r="L11">
-        <v>1.012937899693776</v>
+        <v>1.014037206804851</v>
       </c>
       <c r="M11">
-        <v>1.005869043368422</v>
+        <v>1.007251382004105</v>
       </c>
       <c r="N11">
-        <v>1.019903082481229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010466602047038</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031525253813073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9873792453048326</v>
+        <v>0.9888228809598294</v>
       </c>
       <c r="D12">
-        <v>1.009604515634648</v>
+        <v>1.013535195229643</v>
       </c>
       <c r="E12">
-        <v>0.9970169265097993</v>
+        <v>0.9983622649906393</v>
       </c>
       <c r="F12">
-        <v>0.9892973865434267</v>
+        <v>0.9909521803728364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040448665312006</v>
+        <v>1.042275618927399</v>
       </c>
       <c r="J12">
-        <v>1.017727511818656</v>
+        <v>1.019107926741252</v>
       </c>
       <c r="K12">
-        <v>1.024549992909185</v>
+        <v>1.028407596620168</v>
       </c>
       <c r="L12">
-        <v>1.012201501525712</v>
+        <v>1.013520908823392</v>
       </c>
       <c r="M12">
-        <v>1.004632544912856</v>
+        <v>1.006254799749545</v>
       </c>
       <c r="N12">
-        <v>1.019172801620416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010305454020166</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031226703109887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9876421998949936</v>
+        <v>0.9890286649764191</v>
       </c>
       <c r="D13">
-        <v>1.009803213411836</v>
+        <v>1.013670057456558</v>
       </c>
       <c r="E13">
-        <v>0.9972234874353874</v>
+        <v>0.9985193612673166</v>
       </c>
       <c r="F13">
-        <v>0.9896142901265242</v>
+        <v>0.9912151453141832</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040551786606367</v>
+        <v>1.04234018868078</v>
       </c>
       <c r="J13">
-        <v>1.017884359435956</v>
+        <v>1.019210371257467</v>
       </c>
       <c r="K13">
-        <v>1.024701567315711</v>
+        <v>1.028496793871325</v>
       </c>
       <c r="L13">
-        <v>1.012359861632937</v>
+        <v>1.013630853596271</v>
       </c>
       <c r="M13">
-        <v>1.004898493025771</v>
+        <v>1.006468000061801</v>
       </c>
       <c r="N13">
-        <v>1.019329871979323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01033958543076</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031287263822779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9885012259720068</v>
+        <v>0.9897057284005404</v>
       </c>
       <c r="D14">
-        <v>1.01045244723554</v>
+        <v>1.014117228857956</v>
       </c>
       <c r="E14">
-        <v>0.9978985314394196</v>
+        <v>0.9990371006578562</v>
       </c>
       <c r="F14">
-        <v>0.990649517827764</v>
+        <v>0.9920787422242934</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040888356215558</v>
+        <v>1.042554357872728</v>
       </c>
       <c r="J14">
-        <v>1.01839666699192</v>
+        <v>1.019549397753142</v>
       </c>
       <c r="K14">
-        <v>1.025196615488188</v>
+        <v>1.028794363195371</v>
       </c>
       <c r="L14">
-        <v>1.012877208540711</v>
+        <v>1.013994191457779</v>
       </c>
       <c r="M14">
-        <v>1.005767155001044</v>
+        <v>1.007168771330851</v>
       </c>
       <c r="N14">
-        <v>1.019842907070779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010453097373561</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031499088850779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9890285527869598</v>
+        <v>0.9901239343316478</v>
       </c>
       <c r="D15">
-        <v>1.010851082835488</v>
+        <v>1.014395255480314</v>
       </c>
       <c r="E15">
-        <v>0.9983131048851873</v>
+        <v>0.9993573963450136</v>
       </c>
       <c r="F15">
-        <v>0.9912849798620943</v>
+        <v>0.9926113245255885</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04109472747704</v>
+        <v>1.042687466652561</v>
       </c>
       <c r="J15">
-        <v>1.018711088819501</v>
+        <v>1.019759805364229</v>
       </c>
       <c r="K15">
-        <v>1.025500417156746</v>
+        <v>1.028980261411112</v>
       </c>
       <c r="L15">
-        <v>1.013194798885331</v>
+        <v>1.014219446348296</v>
       </c>
       <c r="M15">
-        <v>1.006300288282806</v>
+        <v>1.007601227740214</v>
       </c>
       <c r="N15">
-        <v>1.020157775413419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010523829797336</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031636426830624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9920686960581404</v>
+        <v>0.992524797749346</v>
       </c>
       <c r="D16">
-        <v>1.013150657354863</v>
+        <v>1.015982368799881</v>
       </c>
       <c r="E16">
-        <v>1.000705989903655</v>
+        <v>1.00119668335162</v>
       </c>
       <c r="F16">
-        <v>0.9949481761113577</v>
+        <v>0.9956729162233401</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042280868538641</v>
+        <v>1.043441855235671</v>
       </c>
       <c r="J16">
-        <v>1.020522759760107</v>
+        <v>1.020960423654646</v>
       </c>
       <c r="K16">
-        <v>1.02725047123344</v>
+        <v>1.030033082085759</v>
       </c>
       <c r="L16">
-        <v>1.015025868872097</v>
+        <v>1.015507750551938</v>
       </c>
       <c r="M16">
-        <v>1.009372297887326</v>
+        <v>1.01008383057082</v>
       </c>
       <c r="N16">
-        <v>1.021972019134563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010925690833259</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032383997403343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.993950687319061</v>
+        <v>0.9940147271125528</v>
       </c>
       <c r="D17">
-        <v>1.01457534376862</v>
+        <v>1.016968799529446</v>
       </c>
       <c r="E17">
-        <v>1.002189693944733</v>
+        <v>1.002340344155118</v>
       </c>
       <c r="F17">
-        <v>0.99721561792461</v>
+        <v>0.9975722183782498</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043011926224947</v>
+        <v>1.043907147050845</v>
       </c>
       <c r="J17">
-        <v>1.021643333077574</v>
+        <v>1.021704869593153</v>
       </c>
       <c r="K17">
-        <v>1.02833255121932</v>
+        <v>1.03068570494644</v>
       </c>
       <c r="L17">
-        <v>1.016159438516184</v>
+        <v>1.016307462718913</v>
       </c>
       <c r="M17">
-        <v>1.011272644213381</v>
+        <v>1.011622949728245</v>
       </c>
       <c r="N17">
-        <v>1.023094183794673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011174890649084</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032848028882199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.995039654668012</v>
+        <v>0.9948720620886893</v>
       </c>
       <c r="D18">
-        <v>1.015400093660319</v>
+        <v>1.017532370103657</v>
       </c>
       <c r="E18">
-        <v>1.003049045489234</v>
+        <v>1.002998373564179</v>
       </c>
       <c r="F18">
-        <v>0.9985275556584604</v>
+        <v>0.9986669641911704</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043433762652169</v>
+        <v>1.044171042935887</v>
       </c>
       <c r="J18">
-        <v>1.022291376580885</v>
+        <v>1.022130206386319</v>
       </c>
       <c r="K18">
-        <v>1.028958192672917</v>
+        <v>1.031055182140689</v>
       </c>
       <c r="L18">
-        <v>1.016815355173563</v>
+        <v>1.016765551110605</v>
       </c>
       <c r="M18">
-        <v>1.012371753905519</v>
+        <v>1.012508747309865</v>
       </c>
       <c r="N18">
-        <v>1.02374314759409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011316550604687</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033097573863441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9954095001807552</v>
+        <v>0.9951681223549339</v>
       </c>
       <c r="D19">
-        <v>1.01568026747271</v>
+        <v>1.017730618901615</v>
       </c>
       <c r="E19">
-        <v>1.003341047927637</v>
+        <v>1.003226395822528</v>
       </c>
       <c r="F19">
-        <v>0.998973120775154</v>
+        <v>0.9990433741232652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043576830768679</v>
+        <v>1.044264176802905</v>
       </c>
       <c r="J19">
-        <v>1.022511411168166</v>
+        <v>1.022279220436663</v>
       </c>
       <c r="K19">
-        <v>1.029170596727528</v>
+        <v>1.031187218697153</v>
       </c>
       <c r="L19">
-        <v>1.017038123413697</v>
+        <v>1.016925423123075</v>
       </c>
       <c r="M19">
-        <v>1.012744964320406</v>
+        <v>1.012814008417189</v>
       </c>
       <c r="N19">
-        <v>1.023963494655723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011366751403434</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033197349862235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9937496796506486</v>
+        <v>0.9938549899993704</v>
       </c>
       <c r="D20">
-        <v>1.014423137950349</v>
+        <v>1.016862634566642</v>
       </c>
       <c r="E20">
-        <v>1.002031137769129</v>
+        <v>1.002217582628084</v>
       </c>
       <c r="F20">
-        <v>0.9969734488380541</v>
+        <v>0.9973687746875443</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042933966285975</v>
+        <v>1.043857153497856</v>
       </c>
       <c r="J20">
-        <v>1.021523685182055</v>
+        <v>1.02162486403629</v>
       </c>
       <c r="K20">
-        <v>1.028217027937768</v>
+        <v>1.030615316743189</v>
       </c>
       <c r="L20">
-        <v>1.016038365845789</v>
+        <v>1.016221550276226</v>
       </c>
       <c r="M20">
-        <v>1.011069726086839</v>
+        <v>1.01145804934988</v>
       </c>
       <c r="N20">
-        <v>1.022974365985418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011148051338362</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032796920030075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1326,93 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9882486713995888</v>
+        <v>0.9895130599436094</v>
       </c>
       <c r="D21">
-        <v>1.010261552253834</v>
+        <v>1.013994747859345</v>
       </c>
       <c r="E21">
-        <v>0.9977000286541844</v>
+        <v>0.9988906608884901</v>
       </c>
       <c r="F21">
-        <v>0.9903451660090652</v>
+        <v>0.9918307988644569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040789453857238</v>
+        <v>1.042496366378624</v>
       </c>
       <c r="J21">
-        <v>1.018246061803227</v>
+        <v>1.019455874709109</v>
       </c>
       <c r="K21">
-        <v>1.025051089820876</v>
+        <v>1.028715749043691</v>
       </c>
       <c r="L21">
-        <v>1.012725106102905</v>
+        <v>1.01389308056193</v>
       </c>
       <c r="M21">
-        <v>1.005511790244111</v>
+        <v>1.00696860987403</v>
       </c>
       <c r="N21">
-        <v>1.019692088005443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010422583732812</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031457084352078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9847055666189947</v>
+        <v>0.9867212140334566</v>
       </c>
       <c r="D22">
-        <v>1.007585206508691</v>
+        <v>1.012149805496724</v>
       </c>
       <c r="E22">
-        <v>0.9949186459330035</v>
+        <v>0.9967578666963703</v>
       </c>
       <c r="F22">
-        <v>0.9860747986966277</v>
+        <v>0.9882701360729966</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039397688865952</v>
+        <v>1.041608339984947</v>
       </c>
       <c r="J22">
-        <v>1.016132041150776</v>
+        <v>1.018055496345314</v>
       </c>
       <c r="K22">
-        <v>1.023007881864319</v>
+        <v>1.02748435460204</v>
       </c>
       <c r="L22">
-        <v>1.0105914420247</v>
+        <v>1.012393825653403</v>
       </c>
       <c r="M22">
-        <v>1.001927257642338</v>
+        <v>1.004077601083479</v>
       </c>
       <c r="N22">
-        <v>1.017575065201185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009953274436743</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030572859948865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9865921087412401</v>
+        <v>0.98819874847085</v>
       </c>
       <c r="D23">
-        <v>1.009009833879633</v>
+        <v>1.013119985259856</v>
       </c>
       <c r="E23">
-        <v>0.9963988111104733</v>
+        <v>0.9978847660737558</v>
       </c>
       <c r="F23">
-        <v>0.9883487209143224</v>
+        <v>0.9901574662188858</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040139716876316</v>
+        <v>1.042075720152385</v>
       </c>
       <c r="J23">
-        <v>1.017257927162324</v>
+        <v>1.018793290070539</v>
       </c>
       <c r="K23">
-        <v>1.024096165663479</v>
+        <v>1.028129038875924</v>
       </c>
       <c r="L23">
-        <v>1.011727473059724</v>
+        <v>1.01318445685991</v>
       </c>
       <c r="M23">
-        <v>1.003836324321072</v>
+        <v>1.005609061783684</v>
       </c>
       <c r="N23">
-        <v>1.01870255010001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010199562811622</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031019003069366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9938405333974583</v>
+        <v>0.993914443922616</v>
       </c>
       <c r="D24">
-        <v>1.014491932472097</v>
+        <v>1.016892597822755</v>
       </c>
       <c r="E24">
-        <v>1.002102801194477</v>
+        <v>1.002261499124972</v>
       </c>
       <c r="F24">
-        <v>0.9970829073760095</v>
+        <v>0.9974488210030233</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04296920714844</v>
+        <v>1.043869895291964</v>
       </c>
       <c r="J24">
-        <v>1.021577766090243</v>
+        <v>1.021648781685414</v>
       </c>
       <c r="K24">
-        <v>1.028269244955953</v>
+        <v>1.030629415563564</v>
       </c>
       <c r="L24">
-        <v>1.01609308964554</v>
+        <v>1.016249016358329</v>
       </c>
       <c r="M24">
-        <v>1.01116144482395</v>
+        <v>1.011520886816812</v>
       </c>
       <c r="N24">
-        <v>1.023028523694698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011154545807035</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032779370038802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001910349417436</v>
+        <v>1.000325438838518</v>
       </c>
       <c r="D25">
-        <v>1.020610108973459</v>
+        <v>1.021143227329251</v>
       </c>
       <c r="E25">
-        <v>1.008485464201533</v>
+        <v>1.007200968089246</v>
       </c>
       <c r="F25">
-        <v>1.006804764612435</v>
+        <v>1.005619602998856</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046074051136106</v>
+        <v>1.045841288949902</v>
       </c>
       <c r="J25">
-        <v>1.026373593277513</v>
+        <v>1.024841855629987</v>
       </c>
       <c r="K25">
-        <v>1.032896687782741</v>
+        <v>1.033421954540996</v>
       </c>
       <c r="L25">
-        <v>1.020953467051186</v>
+        <v>1.01968851739874</v>
       </c>
       <c r="M25">
-        <v>1.019298355871343</v>
+        <v>1.018131303766078</v>
       </c>
       <c r="N25">
-        <v>1.027831161506664</v>
+        <v>1.012222673957153</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034750979813277</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005251366810836</v>
+        <v>1.00509328336983</v>
       </c>
       <c r="D2">
-        <v>1.024405644771426</v>
+        <v>1.023841247009413</v>
       </c>
       <c r="E2">
-        <v>1.011016125911841</v>
+        <v>1.010883940928089</v>
       </c>
       <c r="F2">
-        <v>1.011901937252233</v>
+        <v>1.011700164630299</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047311328072712</v>
+        <v>1.047058494717105</v>
       </c>
       <c r="J2">
-        <v>1.027276136902973</v>
+        <v>1.027122715132979</v>
       </c>
       <c r="K2">
-        <v>1.035535126909817</v>
+        <v>1.034978134526092</v>
       </c>
       <c r="L2">
-        <v>1.022324092678257</v>
+        <v>1.022193699390153</v>
       </c>
       <c r="M2">
-        <v>1.023197912518623</v>
+        <v>1.022998869031821</v>
       </c>
       <c r="N2">
-        <v>1.013034626845649</v>
+        <v>1.014421908039885</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036196662639255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035811620271603</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021404979811517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008751677942359</v>
+        <v>1.008469904127702</v>
       </c>
       <c r="D3">
-        <v>1.026740889847996</v>
+        <v>1.026007387625755</v>
       </c>
       <c r="E3">
-        <v>1.013741419535609</v>
+        <v>1.013501360649491</v>
       </c>
       <c r="F3">
-        <v>1.016361137323687</v>
+        <v>1.016041814336962</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04834190930471</v>
+        <v>1.04799297547129</v>
       </c>
       <c r="J3">
-        <v>1.029006573676781</v>
+        <v>1.028732304234155</v>
       </c>
       <c r="K3">
-        <v>1.037042677492878</v>
+        <v>1.036317971433983</v>
       </c>
       <c r="L3">
-        <v>1.024201444382834</v>
+        <v>1.023964355151974</v>
       </c>
       <c r="M3">
-        <v>1.026788868322815</v>
+        <v>1.026473470613792</v>
       </c>
       <c r="N3">
-        <v>1.013613338557613</v>
+        <v>1.014849472907545</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037259964987195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036756057060848</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02166211368953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010977645829363</v>
+        <v>1.010617966383041</v>
       </c>
       <c r="D4">
-        <v>1.028229461198694</v>
+        <v>1.027388918054582</v>
       </c>
       <c r="E4">
-        <v>1.015480220428127</v>
+        <v>1.015172119777197</v>
       </c>
       <c r="F4">
-        <v>1.019196828788799</v>
+        <v>1.018803611897336</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048988018781562</v>
+        <v>1.04857818677037</v>
       </c>
       <c r="J4">
-        <v>1.030104650604752</v>
+        <v>1.02975390881155</v>
       </c>
       <c r="K4">
-        <v>1.037998713659215</v>
+        <v>1.037167649676182</v>
       </c>
       <c r="L4">
-        <v>1.025395335102011</v>
+        <v>1.025090815426804</v>
       </c>
       <c r="M4">
-        <v>1.029068956944987</v>
+        <v>1.028680269700174</v>
       </c>
       <c r="N4">
-        <v>1.013980629241946</v>
+        <v>1.015120926512162</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037936866627838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037357836142497</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021822789882779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011907004315676</v>
+        <v>1.011514956462392</v>
       </c>
       <c r="D5">
-        <v>1.028853833226267</v>
+        <v>1.02796875223532</v>
       </c>
       <c r="E5">
-        <v>1.016207836770894</v>
+        <v>1.015871441332121</v>
       </c>
       <c r="F5">
-        <v>1.020379916934744</v>
+        <v>1.019956035652226</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049256862175947</v>
+        <v>1.048821663602358</v>
       </c>
       <c r="J5">
-        <v>1.03056378589008</v>
+        <v>1.03018119181925</v>
       </c>
       <c r="K5">
-        <v>1.038399864166673</v>
+        <v>1.037524501908935</v>
       </c>
       <c r="L5">
-        <v>1.025894708429924</v>
+        <v>1.025562118488058</v>
       </c>
       <c r="M5">
-        <v>1.030019848393166</v>
+        <v>1.029600714633457</v>
       </c>
       <c r="N5">
-        <v>1.014134484604817</v>
+        <v>1.015234686212257</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038227702846373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037618060724113</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021890117611575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012065711538641</v>
+        <v>1.011668130140547</v>
       </c>
       <c r="D6">
-        <v>1.028963016384539</v>
+        <v>1.028070381893188</v>
       </c>
       <c r="E6">
-        <v>1.016332550031044</v>
+        <v>1.015991311314836</v>
       </c>
       <c r="F6">
-        <v>1.020580897321744</v>
+        <v>1.020151783153789</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049304270819189</v>
+        <v>1.048864755238374</v>
       </c>
       <c r="J6">
-        <v>1.030643695278739</v>
+        <v>1.030255652290466</v>
       </c>
       <c r="K6">
-        <v>1.038471556983702</v>
+        <v>1.037588679767418</v>
       </c>
       <c r="L6">
-        <v>1.025981116059773</v>
+        <v>1.025643719916469</v>
       </c>
       <c r="M6">
-        <v>1.030181888889609</v>
+        <v>1.029757557951902</v>
       </c>
       <c r="N6">
-        <v>1.014161588910248</v>
+        <v>1.015254762805202</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03828716099107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037673074166544</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021902710399021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010998650956067</v>
+        <v>1.0106449169925</v>
       </c>
       <c r="D7">
-        <v>1.02825027775863</v>
+        <v>1.027413683923307</v>
       </c>
       <c r="E7">
-        <v>1.01549768378915</v>
+        <v>1.015194882671206</v>
       </c>
       <c r="F7">
-        <v>1.019220720721914</v>
+        <v>1.018832707415224</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04899846136971</v>
+        <v>1.048591713003661</v>
       </c>
       <c r="J7">
-        <v>1.030119144697565</v>
+        <v>1.029774196877979</v>
       </c>
       <c r="K7">
-        <v>1.038016404554832</v>
+        <v>1.037189241679571</v>
       </c>
       <c r="L7">
-        <v>1.025409655668749</v>
+        <v>1.02511037258094</v>
       </c>
       <c r="M7">
-        <v>1.029089648298878</v>
+        <v>1.028706102914636</v>
       </c>
       <c r="N7">
-        <v>1.013986372099004</v>
+        <v>1.015152827564099</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037969536301439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037395263544518</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021828795839791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006453142853491</v>
+        <v>1.006272978701518</v>
       </c>
       <c r="D8">
-        <v>1.025214897693589</v>
+        <v>1.024607303987462</v>
       </c>
       <c r="E8">
-        <v>1.011951934009045</v>
+        <v>1.011800908695495</v>
       </c>
       <c r="F8">
-        <v>1.01342942411186</v>
+        <v>1.013205277252133</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047672357891675</v>
+        <v>1.047397612692557</v>
       </c>
       <c r="J8">
-        <v>1.027875794947415</v>
+        <v>1.027700766953798</v>
       </c>
       <c r="K8">
-        <v>1.03606381480315</v>
+        <v>1.035463958992097</v>
       </c>
       <c r="L8">
-        <v>1.02297240643094</v>
+        <v>1.022823367080784</v>
       </c>
       <c r="M8">
-        <v>1.024430506853623</v>
+        <v>1.024209297000698</v>
       </c>
       <c r="N8">
-        <v>1.013236311529716</v>
+        <v>1.014654807203972</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036593465100271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036180381458354</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021502023736754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9981186175950447</v>
+        <v>0.9982407993603931</v>
       </c>
       <c r="D9">
-        <v>1.019667940040659</v>
+        <v>1.019468092384777</v>
       </c>
       <c r="E9">
-        <v>1.005495226463418</v>
+        <v>1.005607270401172</v>
       </c>
       <c r="F9">
-        <v>1.002812098755407</v>
+        <v>1.002876212479572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045161846597718</v>
+        <v>1.045118821859246</v>
       </c>
       <c r="J9">
-        <v>1.023737987698786</v>
+        <v>1.023855832846632</v>
       </c>
       <c r="K9">
-        <v>1.032449779167933</v>
+        <v>1.032253016904348</v>
       </c>
       <c r="L9">
-        <v>1.018499772206229</v>
+        <v>1.018610023952411</v>
       </c>
       <c r="M9">
-        <v>1.015859715788439</v>
+        <v>1.015922796869244</v>
       </c>
       <c r="N9">
-        <v>1.011851878180677</v>
+        <v>1.013642617669537</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034034901095554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03390655630567</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020871054640678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.992337059505946</v>
+        <v>0.9927041481831331</v>
       </c>
       <c r="D10">
-        <v>1.01584424252758</v>
+        <v>1.015952100192633</v>
       </c>
       <c r="E10">
-        <v>1.001050078665163</v>
+        <v>1.001375046951564</v>
       </c>
       <c r="F10">
-        <v>0.9954398960181178</v>
+        <v>0.9957369307754996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043374552169262</v>
+        <v>1.043509810627957</v>
       </c>
       <c r="J10">
-        <v>1.020858042274176</v>
+        <v>1.021210253239698</v>
       </c>
       <c r="K10">
-        <v>1.029933198096361</v>
+        <v>1.03003918643038</v>
       </c>
       <c r="L10">
-        <v>1.015400399465313</v>
+        <v>1.015719518804076</v>
       </c>
       <c r="M10">
-        <v>1.009891975575738</v>
+        <v>1.010183585227181</v>
       </c>
       <c r="N10">
-        <v>1.010889159349952</v>
+        <v>1.01305730450634</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032272385572256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032359787150587</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020426412976921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9897856074218505</v>
+        <v>0.9903102005702653</v>
       </c>
       <c r="D11">
-        <v>1.014170308808779</v>
+        <v>1.014449494949977</v>
       </c>
       <c r="E11">
-        <v>0.9990982650241244</v>
+        <v>0.9995611099807377</v>
       </c>
       <c r="F11">
-        <v>0.9921804788354865</v>
+        <v>0.99262507603744</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042579784180441</v>
+        <v>1.042819808367792</v>
       </c>
       <c r="J11">
-        <v>1.019589578580672</v>
+        <v>1.020091717288897</v>
       </c>
       <c r="K11">
-        <v>1.028829851735876</v>
+        <v>1.029103964336451</v>
       </c>
       <c r="L11">
-        <v>1.014037206804851</v>
+        <v>1.014491307873543</v>
       </c>
       <c r="M11">
-        <v>1.007251382004105</v>
+        <v>1.007687425793552</v>
       </c>
       <c r="N11">
-        <v>1.010466602047038</v>
+        <v>1.012990071904072</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031525253813073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031734746181824</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020240956682051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9888228809598294</v>
+        <v>0.9894116055507113</v>
       </c>
       <c r="D12">
-        <v>1.013535195229643</v>
+        <v>1.013882296741025</v>
       </c>
       <c r="E12">
-        <v>0.9983622649906393</v>
+        <v>0.9988813539831961</v>
       </c>
       <c r="F12">
-        <v>0.9909521803728364</v>
+        <v>0.9914567989059796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042275618927399</v>
+        <v>1.042557586344699</v>
       </c>
       <c r="J12">
-        <v>1.019107926741252</v>
+        <v>1.01967094513985</v>
       </c>
       <c r="K12">
-        <v>1.028407596620168</v>
+        <v>1.028748280603618</v>
       </c>
       <c r="L12">
-        <v>1.013520908823392</v>
+        <v>1.014030016911511</v>
       </c>
       <c r="M12">
-        <v>1.006254799749545</v>
+        <v>1.006749524090587</v>
       </c>
       <c r="N12">
-        <v>1.010305454020166</v>
+        <v>1.01298028087118</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031226703109887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031483269474762</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020169515280049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9890286649764191</v>
+        <v>0.989603494416724</v>
       </c>
       <c r="D13">
-        <v>1.013670057456558</v>
+        <v>1.014002491846468</v>
       </c>
       <c r="E13">
-        <v>0.9985193612673166</v>
+        <v>0.9990262665962625</v>
       </c>
       <c r="F13">
-        <v>0.9912151453141832</v>
+        <v>0.99170675680068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04234018868078</v>
+        <v>1.042613088911693</v>
       </c>
       <c r="J13">
-        <v>1.019210371257467</v>
+        <v>1.019760207670598</v>
       </c>
       <c r="K13">
-        <v>1.028496793871325</v>
+        <v>1.028823104495794</v>
       </c>
       <c r="L13">
-        <v>1.013630853596271</v>
+        <v>1.014128048903353</v>
       </c>
       <c r="M13">
-        <v>1.006468000061801</v>
+        <v>1.006950011392268</v>
       </c>
       <c r="N13">
-        <v>1.01033958543076</v>
+        <v>1.012981331925526</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031287263822779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031533424322336</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02018438107658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9897057284005404</v>
+        <v>0.9902355553664535</v>
       </c>
       <c r="D14">
-        <v>1.014117228857956</v>
+        <v>1.014401980541101</v>
       </c>
       <c r="E14">
-        <v>0.9990371006578562</v>
+        <v>0.9995045365954245</v>
       </c>
       <c r="F14">
-        <v>0.9920787422242934</v>
+        <v>0.9925282369789901</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042554357872728</v>
+        <v>1.042797814780127</v>
       </c>
       <c r="J14">
-        <v>1.019549397753142</v>
+        <v>1.020056508694134</v>
       </c>
       <c r="K14">
-        <v>1.028794363195371</v>
+        <v>1.029073932764171</v>
       </c>
       <c r="L14">
-        <v>1.013994191457779</v>
+        <v>1.014452783819382</v>
       </c>
       <c r="M14">
-        <v>1.007168771330851</v>
+        <v>1.007609604802744</v>
       </c>
       <c r="N14">
-        <v>1.010453097373561</v>
+        <v>1.01298878842909</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031499088850779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031712336176722</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020234854717109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9901239343316478</v>
+        <v>0.9906265436330651</v>
       </c>
       <c r="D15">
-        <v>1.014395255480314</v>
+        <v>1.014651002141544</v>
       </c>
       <c r="E15">
-        <v>0.9993573963450136</v>
+        <v>0.9998009604714041</v>
       </c>
       <c r="F15">
-        <v>0.9926113245255885</v>
+        <v>0.9930353494784636</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042687466652561</v>
+        <v>1.042913047489903</v>
       </c>
       <c r="J15">
-        <v>1.019759805364229</v>
+        <v>1.020241051929571</v>
       </c>
       <c r="K15">
-        <v>1.028980261411112</v>
+        <v>1.029231388751743</v>
       </c>
       <c r="L15">
-        <v>1.014219446348296</v>
+        <v>1.014654682876081</v>
       </c>
       <c r="M15">
-        <v>1.007601227740214</v>
+        <v>1.008017149523111</v>
       </c>
       <c r="N15">
-        <v>1.010523829797336</v>
+        <v>1.012996217012423</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031636426830624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031830132506586</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020266862515534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.992524797749346</v>
+        <v>0.9928810645904301</v>
       </c>
       <c r="D16">
-        <v>1.015982368799881</v>
+        <v>1.016078474335206</v>
       </c>
       <c r="E16">
-        <v>1.00119668335162</v>
+        <v>1.001512112560087</v>
       </c>
       <c r="F16">
-        <v>0.9956729162233401</v>
+        <v>0.9959598400777429</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043441855235671</v>
+        <v>1.043569901810636</v>
       </c>
       <c r="J16">
-        <v>1.020960423654646</v>
+        <v>1.021302305208794</v>
       </c>
       <c r="K16">
-        <v>1.030033082085759</v>
+        <v>1.030127527405713</v>
       </c>
       <c r="L16">
-        <v>1.015507750551938</v>
+        <v>1.015817521272838</v>
       </c>
       <c r="M16">
-        <v>1.01008383057082</v>
+        <v>1.01036553252909</v>
       </c>
       <c r="N16">
-        <v>1.010925690833259</v>
+        <v>1.013070952703011</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032383997403343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032467218581483</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020446883251947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9940147271125528</v>
+        <v>0.9942900085012444</v>
       </c>
       <c r="D17">
-        <v>1.016968799529446</v>
+        <v>1.016972860776424</v>
       </c>
       <c r="E17">
-        <v>1.002340344155118</v>
+        <v>1.002585001045085</v>
       </c>
       <c r="F17">
-        <v>0.9975722183782498</v>
+        <v>0.9977830546094215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043907147050845</v>
+        <v>1.043979804375851</v>
       </c>
       <c r="J17">
-        <v>1.021704869593153</v>
+        <v>1.021969395585331</v>
       </c>
       <c r="K17">
-        <v>1.03068570494644</v>
+        <v>1.030689698016253</v>
       </c>
       <c r="L17">
-        <v>1.016307462718913</v>
+        <v>1.016547857132984</v>
       </c>
       <c r="M17">
-        <v>1.011622949728245</v>
+        <v>1.011830066888011</v>
       </c>
       <c r="N17">
-        <v>1.011174890649084</v>
+        <v>1.013153878557202</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032848028882199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032867541346212</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020559803375921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9948720620886893</v>
+        <v>0.9951046547539508</v>
       </c>
       <c r="D18">
-        <v>1.017532370103657</v>
+        <v>1.017486169557927</v>
       </c>
       <c r="E18">
-        <v>1.002998373564179</v>
+        <v>1.003205800216794</v>
       </c>
       <c r="F18">
-        <v>0.9986669641911704</v>
+        <v>0.9988375579871864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044171042935887</v>
+        <v>1.044213851598651</v>
       </c>
       <c r="J18">
-        <v>1.022130206386319</v>
+        <v>1.022353886593048</v>
       </c>
       <c r="K18">
-        <v>1.031055182140689</v>
+        <v>1.031009744149279</v>
       </c>
       <c r="L18">
-        <v>1.016765551110605</v>
+        <v>1.016969425867702</v>
       </c>
       <c r="M18">
-        <v>1.012508747309865</v>
+        <v>1.012676386907429</v>
       </c>
       <c r="N18">
-        <v>1.011316550604687</v>
+        <v>1.013214517370252</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033097573863441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033080999519841</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020623206977368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9951681223549339</v>
+        <v>0.9953866189931569</v>
       </c>
       <c r="D19">
-        <v>1.017730618901615</v>
+        <v>1.017667596462355</v>
       </c>
       <c r="E19">
-        <v>1.003226395822528</v>
+        <v>1.003421523457105</v>
       </c>
       <c r="F19">
-        <v>0.9990433741232652</v>
+        <v>0.9992006653436392</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044264176802905</v>
+        <v>1.044297040522451</v>
       </c>
       <c r="J19">
-        <v>1.022279220436663</v>
+        <v>1.022489400593197</v>
       </c>
       <c r="K19">
-        <v>1.031187218697153</v>
+        <v>1.031125230409798</v>
       </c>
       <c r="L19">
-        <v>1.016925423123075</v>
+        <v>1.017117229287906</v>
       </c>
       <c r="M19">
-        <v>1.012814008417189</v>
+        <v>1.012968593024621</v>
       </c>
       <c r="N19">
-        <v>1.011366751403434</v>
+        <v>1.013239252619876</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033197349862235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033169695108383</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020646795717005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9938549899993704</v>
+        <v>0.9941385592418047</v>
       </c>
       <c r="D20">
-        <v>1.016862634566642</v>
+        <v>1.016876274684335</v>
       </c>
       <c r="E20">
-        <v>1.002217582628084</v>
+        <v>1.002469478130912</v>
       </c>
       <c r="F20">
-        <v>0.9973687746875443</v>
+        <v>0.9975874084213485</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043857153497856</v>
+        <v>1.043935539940513</v>
       </c>
       <c r="J20">
-        <v>1.02162486403629</v>
+        <v>1.021897314554872</v>
       </c>
       <c r="K20">
-        <v>1.030615316743189</v>
+        <v>1.030628727169819</v>
       </c>
       <c r="L20">
-        <v>1.016221550276226</v>
+        <v>1.016469043286202</v>
       </c>
       <c r="M20">
-        <v>1.01145804934988</v>
+        <v>1.011672813416504</v>
       </c>
       <c r="N20">
-        <v>1.011148051338362</v>
+        <v>1.013143373106351</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032796920030075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032822961865441</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02054748644595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9895130599436094</v>
+        <v>0.9900721246645409</v>
       </c>
       <c r="D21">
-        <v>1.013994747859345</v>
+        <v>1.014304984056031</v>
       </c>
       <c r="E21">
-        <v>0.9988906608884901</v>
+        <v>0.9993840277702974</v>
       </c>
       <c r="F21">
-        <v>0.9918307988644569</v>
+        <v>0.9923069975198343</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042496366378624</v>
+        <v>1.042757019057252</v>
       </c>
       <c r="J21">
-        <v>1.019455874709109</v>
+        <v>1.019990871560251</v>
       </c>
       <c r="K21">
-        <v>1.028715749043691</v>
+        <v>1.029020319281709</v>
       </c>
       <c r="L21">
-        <v>1.01389308056193</v>
+        <v>1.014377079338945</v>
       </c>
       <c r="M21">
-        <v>1.00696860987403</v>
+        <v>1.007435596781096</v>
       </c>
       <c r="N21">
-        <v>1.010422583732812</v>
+        <v>1.013053712717449</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031457084352078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031689319958322</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020226284638803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9867212140334566</v>
+        <v>0.9874565674340112</v>
       </c>
       <c r="D22">
-        <v>1.012149805496724</v>
+        <v>1.012649899960194</v>
       </c>
       <c r="E22">
-        <v>0.9967578666963703</v>
+        <v>0.9974057061745445</v>
       </c>
       <c r="F22">
-        <v>0.9882701360729966</v>
+        <v>0.9889120500162579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041608339984947</v>
+        <v>1.041985275536149</v>
       </c>
       <c r="J22">
-        <v>1.018055496345314</v>
+        <v>1.018757350342164</v>
       </c>
       <c r="K22">
-        <v>1.02748435460204</v>
+        <v>1.027974857220934</v>
       </c>
       <c r="L22">
-        <v>1.012393825653403</v>
+        <v>1.013028732316673</v>
       </c>
       <c r="M22">
-        <v>1.004077601083479</v>
+        <v>1.004706408616484</v>
       </c>
       <c r="N22">
-        <v>1.009953274436743</v>
+        <v>1.012982815940179</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030572859948865</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030935262313463</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020013880261502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.98819874847085</v>
+        <v>0.9888301529534729</v>
       </c>
       <c r="D23">
-        <v>1.013119985259856</v>
+        <v>1.013511834340708</v>
       </c>
       <c r="E23">
-        <v>0.9978847660737558</v>
+        <v>0.9984413368618926</v>
       </c>
       <c r="F23">
-        <v>0.9901574662188858</v>
+        <v>0.9907020228008637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042075720152385</v>
+        <v>1.042385426121068</v>
       </c>
       <c r="J23">
-        <v>1.018793290070539</v>
+        <v>1.019396773661648</v>
       </c>
       <c r="K23">
-        <v>1.028129038875924</v>
+        <v>1.028513563209001</v>
       </c>
       <c r="L23">
-        <v>1.01318445685991</v>
+        <v>1.013730205477979</v>
       </c>
       <c r="M23">
-        <v>1.005609061783684</v>
+        <v>1.006142811371006</v>
       </c>
       <c r="N23">
-        <v>1.010199562811622</v>
+        <v>1.012976386963389</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031019003069366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031305530464185</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020121623992999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.993914443922616</v>
+        <v>0.9941950031765092</v>
       </c>
       <c r="D24">
-        <v>1.016892597822755</v>
+        <v>1.016902528046103</v>
       </c>
       <c r="E24">
-        <v>1.002261499124972</v>
+        <v>1.002510810602695</v>
       </c>
       <c r="F24">
-        <v>0.9974488210030233</v>
+        <v>0.9976645935342756</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043869895291964</v>
+        <v>1.043946126051791</v>
       </c>
       <c r="J24">
-        <v>1.021648781685414</v>
+        <v>1.021918357524539</v>
       </c>
       <c r="K24">
-        <v>1.030629415563564</v>
+        <v>1.030639178794613</v>
       </c>
       <c r="L24">
-        <v>1.016249016358329</v>
+        <v>1.016493976599397</v>
       </c>
       <c r="M24">
-        <v>1.011520886816812</v>
+        <v>1.01173284603003</v>
       </c>
       <c r="N24">
-        <v>1.011154545807035</v>
+        <v>1.013143865395244</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032779370038802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032800161576314</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020547741334045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000325438838518</v>
+        <v>1.000358396892162</v>
       </c>
       <c r="D25">
-        <v>1.021143227329251</v>
+        <v>1.020829114960032</v>
       </c>
       <c r="E25">
-        <v>1.007200968089246</v>
+        <v>1.007235282567329</v>
       </c>
       <c r="F25">
-        <v>1.005619602998856</v>
+        <v>1.005599037212959</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045841288949902</v>
+        <v>1.04573227203642</v>
       </c>
       <c r="J25">
-        <v>1.024841855629987</v>
+        <v>1.024873705569195</v>
       </c>
       <c r="K25">
-        <v>1.033421954540996</v>
+        <v>1.033112467058343</v>
       </c>
       <c r="L25">
-        <v>1.01968851739874</v>
+        <v>1.019722308879509</v>
       </c>
       <c r="M25">
-        <v>1.018131303766078</v>
+        <v>1.01811105271017</v>
       </c>
       <c r="N25">
-        <v>1.012222673957153</v>
+        <v>1.013881304187891</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034750979813277</v>
+        <v>1.034545732880882</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021043524654687</v>
       </c>
     </row>
   </sheetData>
